--- a/learning.xlsx
+++ b/learning.xlsx
@@ -411,11 +411,6 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>이상준</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -423,11 +418,6 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>걸레, 전유현의 첩</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -435,69 +425,39 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>고우쎄용~</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>섹</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>스</t>
+          <t>_</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>오마이갓</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>김우!</t>
+          <t>_</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>봇</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>&lt;@388682738858721282&gt;</t>
+          <t>_</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>도박은</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>질병이야</t>
+          <t>_</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>섹스머신</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>&lt;@!536388176688840715&gt;</t>
+          <t>_</t>
         </is>
       </c>
     </row>
@@ -507,11 +467,6 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>공칠빵!으악!!</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -519,11 +474,6 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>공칠빵!느금마악!</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -531,11 +481,6 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>나 이쁜척하면 재수없지? 근데 나도 곤란하다 나는 이쁜 척 하는게 아니라 이쁘게 태어난곤데~ 그고를 남들이 막 막 이쁜 척 하는고라고 구니까눈 허뉴도 힘드로 흥흥</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -543,21 +488,11 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간 공간</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>싱</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>싱준아 윾윾~</t>
+          <t>_</t>
         </is>
       </c>
     </row>
@@ -567,21 +502,11 @@
           <t>_</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>김헌유 : 부르셨나요?</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>_</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>헌맘 : 전유현 정승훈</t>
         </is>
       </c>
     </row>
